--- a/AURES calcs/Hydro_eurostat.xlsx
+++ b/AURES calcs/Hydro_eurostat.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schoeniger\Documents\Github\EEG-Tools\AURES calcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443D8434-3648-42AD-A3F7-5F59285A2694}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD8D0EB-FE5D-4C95-B1AF-FD2524AA25CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10425" xr2:uid="{D0E5BD40-7516-4B9D-A4F9-44D988F9C8CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="FLH" sheetId="5" r:id="rId1"/>
+    <sheet name="MAP - FLH" sheetId="5" r:id="rId1"/>
     <sheet name="MAP - Cap" sheetId="1" r:id="rId2"/>
     <sheet name="MAP - Gen" sheetId="2" r:id="rId3"/>
     <sheet name="AP - Cap" sheetId="4" r:id="rId4"/>
